--- a/model/Metanproduktion_Arrhenius_v10.xlsx
+++ b/model/Metanproduktion_Arrhenius_v10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au277187_uni_au_dk/Documents/Documents/GitHub/AU-BCE-EE/Dalby-2025-KVIK/model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="495" documentId="13_ncr:1_{A03A6902-9A89-4468-8B98-E20900CA048E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D8326B6-B157-4248-9545-0A16789FB148}"/>
+  <xr:revisionPtr revIDLastSave="505" documentId="13_ncr:1_{A03A6902-9A89-4468-8B98-E20900CA048E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65F5BA22-A296-477A-85D1-D245CF1BB253}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabel_svin" sheetId="1" r:id="rId1"/>
@@ -2691,10 +2691,10 @@
   <dimension ref="A1:CI153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="BE112" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="6" topLeftCell="BE119" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BF115" sqref="BF115"/>
+      <selection pane="bottomRight" activeCell="D120" sqref="D120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6986,7 +6986,7 @@
         <v>1.327994746283151</v>
       </c>
       <c r="BJ16" s="4">
-        <f t="shared" ref="BF16:BS16" si="176">+BJ115</f>
+        <f t="shared" ref="BJ16:BS16" si="176">+BJ115</f>
         <v>2.2449391736331252</v>
       </c>
       <c r="BK16" s="4">
@@ -38097,7 +38097,7 @@
         <v>19.41898571151966</v>
       </c>
       <c r="BE123" s="4">
-        <f t="shared" si="1112"/>
+        <f>BE111*BE109</f>
         <v>18.602103176400234</v>
       </c>
       <c r="BF123" s="4">
@@ -47714,10 +47714,10 @@
   <dimension ref="A1:AD147"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="14" topLeftCell="D79" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="14" topLeftCell="D83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="E137" sqref="E137"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47726,7 +47726,8 @@
     <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.5703125" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="6" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
     <col min="7" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="16.28515625" customWidth="1"/>
@@ -58946,15 +58947,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="51017e06-3185-4484-8ddc-2b23098c8f10" xsi:nil="true"/>
@@ -58965,7 +58957,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100010BCB8FDA3789478577C31581FA3B2F" ma:contentTypeVersion="12" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="f292e6a414670b17f73bfa0928db04e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0cd6032e-4b27-47f4-bb02-403eeb79ffb0" xmlns:ns3="51017e06-3185-4484-8ddc-2b23098c8f10" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="31239af3d6d5239002168564422d4159" ns2:_="" ns3:_="">
     <xsd:import namespace="0cd6032e-4b27-47f4-bb02-403eeb79ffb0"/>
@@ -59170,15 +59162,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B591A28-77E8-4B69-8E3E-D2C48B98FB73}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE2544F1-D550-4ABD-8DC3-837C3181A044}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -59189,7 +59182,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0004E541-2E4D-4AE8-8084-A57750819319}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -59206,4 +59199,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B591A28-77E8-4B69-8E3E-D2C48B98FB73}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/model/Metanproduktion_Arrhenius_v10.xlsx
+++ b/model/Metanproduktion_Arrhenius_v10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au277187_uni_au_dk/Documents/Documents/GitHub/AU-BCE-EE/Dalby-2025-KVIK/model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="505" documentId="13_ncr:1_{A03A6902-9A89-4468-8B98-E20900CA048E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65F5BA22-A296-477A-85D1-D245CF1BB253}"/>
+  <xr:revisionPtr revIDLastSave="495" documentId="13_ncr:1_{A03A6902-9A89-4468-8B98-E20900CA048E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D8326B6-B157-4248-9545-0A16789FB148}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabel_svin" sheetId="1" r:id="rId1"/>
@@ -2691,10 +2691,10 @@
   <dimension ref="A1:CI153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="BE119" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="6" topLeftCell="BE112" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D120" sqref="D120"/>
+      <selection pane="bottomRight" activeCell="BF115" sqref="BF115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6986,7 +6986,7 @@
         <v>1.327994746283151</v>
       </c>
       <c r="BJ16" s="4">
-        <f t="shared" ref="BJ16:BS16" si="176">+BJ115</f>
+        <f t="shared" ref="BF16:BS16" si="176">+BJ115</f>
         <v>2.2449391736331252</v>
       </c>
       <c r="BK16" s="4">
@@ -38097,7 +38097,7 @@
         <v>19.41898571151966</v>
       </c>
       <c r="BE123" s="4">
-        <f>BE111*BE109</f>
+        <f t="shared" si="1112"/>
         <v>18.602103176400234</v>
       </c>
       <c r="BF123" s="4">
@@ -47714,10 +47714,10 @@
   <dimension ref="A1:AD147"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="14" topLeftCell="D83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="14" topLeftCell="D79" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="E137" sqref="E137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47726,8 +47726,7 @@
     <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.5703125" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="5" max="6" width="16.28515625" customWidth="1"/>
     <col min="7" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="16.28515625" customWidth="1"/>
@@ -58947,6 +58946,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="51017e06-3185-4484-8ddc-2b23098c8f10" xsi:nil="true"/>
@@ -58957,7 +58965,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100010BCB8FDA3789478577C31581FA3B2F" ma:contentTypeVersion="12" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="f292e6a414670b17f73bfa0928db04e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0cd6032e-4b27-47f4-bb02-403eeb79ffb0" xmlns:ns3="51017e06-3185-4484-8ddc-2b23098c8f10" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="31239af3d6d5239002168564422d4159" ns2:_="" ns3:_="">
     <xsd:import namespace="0cd6032e-4b27-47f4-bb02-403eeb79ffb0"/>
@@ -59162,16 +59170,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B591A28-77E8-4B69-8E3E-D2C48B98FB73}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE2544F1-D550-4ABD-8DC3-837C3181A044}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -59182,7 +59189,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0004E541-2E4D-4AE8-8084-A57750819319}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -59199,12 +59206,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B591A28-77E8-4B69-8E3E-D2C48B98FB73}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>